--- a/biology/Mycologie/Dépérissement_du_buis/Dépérissement_du_buis.xlsx
+++ b/biology/Mycologie/Dépérissement_du_buis/Dépérissement_du_buis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9p%C3%A9rissement_du_buis</t>
+          <t>Dépérissement_du_buis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le dépérissement du buis est une maladie fongique qui affecte certaines espèces de buis (genre Buxus) et qui se manifeste par des symptômes de dépérissement des feuilles et des rameaux. C'est une maladie émergente, observée pour la première fois au Royaume-Uni en 1994, qui s'est répandue depuis dans plusieurs pays d'Europe, en Amérique du Nord et en Nouvelle-Zélande.
